--- a/localfile/N1_14_Traffic Count and Revenue.xlsx
+++ b/localfile/N1_14_Traffic Count and Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\NYSThruway\localfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E5B992-6507-42A1-9F3A-E74939DDB340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B2A2C-CC01-4FD4-AEFA-B6757DC989D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{B4D90DE3-93F5-418F-8C4C-85E5E267956A}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{B4D90DE3-93F5-418F-8C4C-85E5E267956A}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue LastYear" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="42">
   <si>
     <t>NEW YORK STATE THRUWAY AUTHORITY</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -510,38 +516,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F458EC8B-EF41-4192-BF64-DA29E4C8D119}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q5" s="2">
         <v>44091</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2">
+        <v>44092</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -549,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -559,8 +577,14 @@
       <c r="Q8">
         <v>228</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>183</v>
+      </c>
+      <c r="S8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -570,8 +594,14 @@
       <c r="Q9">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>13.5</v>
+      </c>
+      <c r="S9">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -581,8 +611,14 @@
       <c r="Q10">
         <v>1160.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>1228.5</v>
+      </c>
+      <c r="S10">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -592,8 +628,14 @@
       <c r="Q11">
         <v>660</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>660</v>
+      </c>
+      <c r="S11">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -603,8 +645,14 @@
       <c r="Q12">
         <v>379.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>594</v>
+      </c>
+      <c r="S12">
+        <v>437.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -614,8 +662,14 @@
       <c r="Q13">
         <v>5683.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>6048</v>
+      </c>
+      <c r="S13">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -625,8 +679,14 @@
       <c r="Q14">
         <v>206.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>354</v>
+      </c>
+      <c r="S14">
+        <v>383.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -636,8 +696,14 @@
       <c r="Q15">
         <v>396</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>313.5</v>
+      </c>
+      <c r="S15">
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -647,6 +713,12 @@
       <c r="Q16">
         <v>8776.75</v>
       </c>
+      <c r="R16">
+        <v>9394.5</v>
+      </c>
+      <c r="S16">
+        <v>8629.75</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -776,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -784,7 +856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -792,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -800,7 +872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -808,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -816,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -826,8 +898,14 @@
       <c r="Q38">
         <v>61.12</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <v>53.98</v>
+      </c>
+      <c r="S38">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -837,16 +915,25 @@
       <c r="Q39">
         <v>24.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <v>15.75</v>
+      </c>
+      <c r="S39">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -854,7 +941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -862,7 +949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -872,8 +959,14 @@
       <c r="Q43">
         <v>3343.43</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <v>3509.47</v>
+      </c>
+      <c r="S43">
+        <v>3336.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -883,8 +976,14 @@
       <c r="Q44">
         <v>2226.56</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <v>2447.4699999999998</v>
+      </c>
+      <c r="S44">
+        <v>2815.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -894,8 +993,14 @@
       <c r="Q45">
         <v>1689.01</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>1647.66</v>
+      </c>
+      <c r="S45">
+        <v>1555.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -905,8 +1010,14 @@
       <c r="Q46">
         <v>17268.12</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <v>16910.29</v>
+      </c>
+      <c r="S46">
+        <v>16539.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -916,8 +1027,14 @@
       <c r="Q47">
         <v>1445.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>1370.84</v>
+      </c>
+      <c r="S47">
+        <v>1400.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -927,8 +1044,14 @@
       <c r="Q48">
         <v>687.83</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>682.3</v>
+      </c>
+      <c r="S48">
+        <v>626.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -938,8 +1061,14 @@
       <c r="Q49">
         <v>379.59</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>347.54</v>
+      </c>
+      <c r="S49">
+        <v>353.97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -949,8 +1078,14 @@
       <c r="Q50">
         <v>379.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>280.5</v>
+      </c>
+      <c r="S50">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -960,8 +1095,14 @@
       <c r="Q51">
         <v>323.17</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51">
+        <v>271.89</v>
+      </c>
+      <c r="S51">
+        <v>271.88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -969,7 +1110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -979,8 +1120,14 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -988,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -996,7 +1143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +1151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1014,8 +1161,14 @@
       <c r="Q57">
         <v>27828.28</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57">
+        <v>27537.69</v>
+      </c>
+      <c r="S57">
+        <v>27270.65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1023,23 +1176,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60">
+        <v>6.75</v>
+      </c>
+      <c r="S60">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -1049,8 +1211,14 @@
       <c r="Q61">
         <v>515.80999999999995</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61">
+        <v>608.33000000000004</v>
+      </c>
+      <c r="S61">
+        <v>609.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -1060,8 +1228,14 @@
       <c r="Q62">
         <v>679.21</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62">
+        <v>785.53</v>
+      </c>
+      <c r="S62">
+        <v>791.69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1071,8 +1245,14 @@
       <c r="Q63">
         <v>1097.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63">
+        <v>1165.4000000000001</v>
+      </c>
+      <c r="S63">
+        <v>1241.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1082,8 +1262,14 @@
       <c r="Q64">
         <v>9385.57</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64">
+        <v>8896.06</v>
+      </c>
+      <c r="S64">
+        <v>9080.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -1093,8 +1279,14 @@
       <c r="Q65">
         <v>2419.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65">
+        <v>2255.5500000000002</v>
+      </c>
+      <c r="S65">
+        <v>2031.07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -1104,8 +1296,14 @@
       <c r="Q66">
         <v>536.87</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <v>595.87</v>
+      </c>
+      <c r="S66">
+        <v>494.45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -1115,8 +1313,14 @@
       <c r="Q67">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="S67">
+        <v>52.58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -1126,8 +1330,14 @@
       <c r="Q68">
         <v>206.25</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68">
+        <v>239.25</v>
+      </c>
+      <c r="S68">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -1137,8 +1347,14 @@
       <c r="Q69">
         <v>123.12</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69">
+        <v>153.9</v>
+      </c>
+      <c r="S69">
+        <v>100.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1148,8 +1364,14 @@
       <c r="Q70">
         <v>15014.98</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70">
+        <v>14742.55</v>
+      </c>
+      <c r="S70">
+        <v>14637.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -1159,8 +1381,14 @@
       <c r="Q71">
         <v>48549.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71">
+        <v>50538</v>
+      </c>
+      <c r="S71">
+        <v>50538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -1168,7 +1396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -1176,7 +1404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -1184,7 +1412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -1194,8 +1422,14 @@
       <c r="Q75">
         <v>376.87</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <v>272.98</v>
+      </c>
+      <c r="S75">
+        <v>316.67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -1205,8 +1439,14 @@
       <c r="Q76">
         <v>51243.14</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76">
+        <v>51401.760000000002</v>
+      </c>
+      <c r="S76">
+        <v>50221.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1216,8 +1456,14 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -1226,6 +1472,12 @@
       </c>
       <c r="Q78">
         <v>51620.01</v>
+      </c>
+      <c r="R78">
+        <v>51674.74</v>
+      </c>
+      <c r="S78">
+        <v>50538</v>
       </c>
     </row>
   </sheetData>
@@ -1235,38 +1487,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A3D0D1-FB62-4F03-A00F-B06551D86BFC}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q5" s="2">
         <v>44091</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2">
+        <v>44092</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1274,7 +1538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1284,8 +1548,14 @@
       <c r="Q8">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>61</v>
+      </c>
+      <c r="S8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1295,8 +1565,14 @@
       <c r="Q9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1306,8 +1582,14 @@
       <c r="Q10">
         <v>221</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>234</v>
+      </c>
+      <c r="S10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1317,8 +1599,14 @@
       <c r="Q11">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>80</v>
+      </c>
+      <c r="S11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1328,8 +1616,14 @@
       <c r="Q12">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>72</v>
+      </c>
+      <c r="S12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1339,8 +1633,14 @@
       <c r="Q13">
         <v>421</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>448</v>
+      </c>
+      <c r="S13">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1350,8 +1650,14 @@
       <c r="Q14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>24</v>
+      </c>
+      <c r="S14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1361,8 +1667,14 @@
       <c r="Q15">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>19</v>
+      </c>
+      <c r="S15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1372,6 +1684,12 @@
       <c r="Q16">
         <v>896</v>
       </c>
+      <c r="R16">
+        <v>941</v>
+      </c>
+      <c r="S16">
+        <v>890</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1501,7 +1819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1509,7 +1827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1517,7 +1835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1533,7 +1851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1541,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1551,8 +1869,14 @@
       <c r="Q38">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <v>26</v>
+      </c>
+      <c r="S38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1562,16 +1886,25 @@
       <c r="Q39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1587,7 +1920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1597,8 +1930,14 @@
       <c r="Q43">
         <v>915</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <v>948</v>
+      </c>
+      <c r="S43">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1608,8 +1947,14 @@
       <c r="Q44">
         <v>382</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <v>431</v>
+      </c>
+      <c r="S44">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1619,8 +1964,14 @@
       <c r="Q45">
         <v>290</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>275</v>
+      </c>
+      <c r="S45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1630,8 +1981,14 @@
       <c r="Q46">
         <v>1453</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <v>1438</v>
+      </c>
+      <c r="S46">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1641,8 +1998,14 @@
       <c r="Q47">
         <v>264</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>252</v>
+      </c>
+      <c r="S47">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +2015,14 @@
       <c r="Q48">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>58</v>
+      </c>
+      <c r="S48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1663,8 +2032,14 @@
       <c r="Q49">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>66</v>
+      </c>
+      <c r="S49">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1674,8 +2049,14 @@
       <c r="Q50">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>34</v>
+      </c>
+      <c r="S50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1685,8 +2066,14 @@
       <c r="Q51">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51">
+        <v>53</v>
+      </c>
+      <c r="S51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +2081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1704,8 +2091,14 @@
       <c r="Q53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53">
+        <v>38</v>
+      </c>
+      <c r="S53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1713,7 +2106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +2114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +2122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1739,8 +2132,14 @@
       <c r="Q57">
         <v>3625</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57">
+        <v>3624</v>
+      </c>
+      <c r="S57">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1748,23 +2147,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60">
+        <v>3</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -1774,8 +2182,14 @@
       <c r="Q61">
         <v>176</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61">
+        <v>197</v>
+      </c>
+      <c r="S61">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -1785,8 +2199,14 @@
       <c r="Q62">
         <v>154</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62">
+        <v>178</v>
+      </c>
+      <c r="S62">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1796,8 +2216,14 @@
       <c r="Q63">
         <v>236</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63">
+        <v>253</v>
+      </c>
+      <c r="S63">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1807,8 +2233,14 @@
       <c r="Q64">
         <v>1233</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64">
+        <v>1195</v>
+      </c>
+      <c r="S64">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -1818,8 +2250,14 @@
       <c r="Q65">
         <v>424</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65">
+        <v>403</v>
+      </c>
+      <c r="S65">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -1829,8 +2267,14 @@
       <c r="Q66">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <v>77</v>
+      </c>
+      <c r="S66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -1840,8 +2284,14 @@
       <c r="Q67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <v>7</v>
+      </c>
+      <c r="S67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -1851,8 +2301,14 @@
       <c r="Q68">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68">
+        <v>28</v>
+      </c>
+      <c r="S68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -1862,8 +2318,14 @@
       <c r="Q69">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69">
+        <v>30</v>
+      </c>
+      <c r="S69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1873,8 +2335,14 @@
       <c r="Q70">
         <v>2353</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70">
+        <v>2371</v>
+      </c>
+      <c r="S70">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -1884,8 +2352,14 @@
       <c r="Q71">
         <v>6184</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71">
+        <v>6813</v>
+      </c>
+      <c r="S71">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -1893,7 +2367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -1901,7 +2375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -1909,7 +2383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -1919,8 +2393,14 @@
       <c r="Q75">
         <v>125</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <v>98</v>
+      </c>
+      <c r="S75">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -1930,8 +2410,14 @@
       <c r="Q76">
         <v>6698</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76">
+        <v>6800</v>
+      </c>
+      <c r="S76">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1941,8 +2427,14 @@
       <c r="Q77">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77">
+        <v>22</v>
+      </c>
+      <c r="S77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -1951,6 +2443,12 @@
       </c>
       <c r="Q78">
         <v>6874</v>
+      </c>
+      <c r="R78">
+        <v>6936</v>
+      </c>
+      <c r="S78">
+        <v>6813</v>
       </c>
     </row>
   </sheetData>
@@ -1960,44 +2458,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8786EFB-7949-42F3-9CE2-C9B662E87437}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P5" s="2">
         <v>44088</v>
       </c>
       <c r="Q5" s="2">
         <v>44089</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2">
+        <v>44090</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P6" t="s">
         <v>38</v>
       </c>
       <c r="Q6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2005,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2018,8 +2528,14 @@
       <c r="Q8">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>72</v>
+      </c>
+      <c r="S8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2032,8 +2548,14 @@
       <c r="Q9">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>261</v>
+      </c>
+      <c r="S9">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2046,8 +2568,14 @@
       <c r="Q10">
         <v>1354.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>1743</v>
+      </c>
+      <c r="S10">
+        <v>1748.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2060,8 +2588,14 @@
       <c r="Q11">
         <v>585.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>833.25</v>
+      </c>
+      <c r="S11">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2074,8 +2608,14 @@
       <c r="Q12">
         <v>445.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>561</v>
+      </c>
+      <c r="S12">
+        <v>651.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2088,8 +2628,14 @@
       <c r="Q13">
         <v>6196.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>7114.5</v>
+      </c>
+      <c r="S13">
+        <v>7465.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2102,8 +2648,14 @@
       <c r="Q14">
         <v>206.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>339.25</v>
+      </c>
+      <c r="S14">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2116,8 +2668,14 @@
       <c r="Q15">
         <v>181.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>264</v>
+      </c>
+      <c r="S15">
+        <v>346.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2130,6 +2688,12 @@
       <c r="Q16">
         <v>9294.25</v>
       </c>
+      <c r="R16">
+        <v>11188</v>
+      </c>
+      <c r="S16">
+        <v>11700</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2259,7 +2823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2267,7 +2831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2283,7 +2847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2312,8 +2876,14 @@
       <c r="Q38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <v>13.5</v>
+      </c>
+      <c r="S38">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2326,8 +2896,14 @@
       <c r="Q39">
         <v>77.06</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <v>64.67</v>
+      </c>
+      <c r="S39">
+        <v>79.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2335,7 +2911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2343,7 +2919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2351,7 +2927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2364,8 +2940,14 @@
       <c r="Q43">
         <v>3058.95</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <v>3181.17</v>
+      </c>
+      <c r="S43">
+        <v>3229.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2378,8 +2960,14 @@
       <c r="Q44">
         <v>2275.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <v>2352.5700000000002</v>
+      </c>
+      <c r="S44">
+        <v>2510.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2392,8 +2980,14 @@
       <c r="Q45">
         <v>1556.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>1806.44</v>
+      </c>
+      <c r="S45">
+        <v>1589.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2406,8 +3000,14 @@
       <c r="Q46">
         <v>20453.97</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <v>19610.259999999998</v>
+      </c>
+      <c r="S46">
+        <v>20367.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2420,8 +3020,14 @@
       <c r="Q47">
         <v>1513.11</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>1564.34</v>
+      </c>
+      <c r="S47">
+        <v>1670.77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2434,8 +3040,14 @@
       <c r="Q48">
         <v>791.11</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>765.29</v>
+      </c>
+      <c r="S48">
+        <v>772.71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2448,8 +3060,14 @@
       <c r="Q49">
         <v>214.15</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>194.93</v>
+      </c>
+      <c r="S49">
+        <v>220.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2462,8 +3080,14 @@
       <c r="Q50">
         <v>123.75</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>189.75</v>
+      </c>
+      <c r="S50">
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2476,8 +3100,14 @@
       <c r="Q51">
         <v>312.89</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51">
+        <v>251.35</v>
+      </c>
+      <c r="S51">
+        <v>266.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2485,7 +3115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -2498,8 +3128,14 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2507,7 +3143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2515,7 +3151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2523,7 +3159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2536,8 +3172,14 @@
       <c r="Q57">
         <v>30379.98</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57">
+        <v>29994.27</v>
+      </c>
+      <c r="S57">
+        <v>30945.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +3187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2553,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -2566,8 +3208,11 @@
       <c r="Q60">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -2580,8 +3225,14 @@
       <c r="Q61">
         <v>547.29999999999995</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61">
+        <v>638.73</v>
+      </c>
+      <c r="S61">
+        <v>603.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2594,8 +3245,14 @@
       <c r="Q62">
         <v>544.95000000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62">
+        <v>675.02</v>
+      </c>
+      <c r="S62">
+        <v>619.30999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -2608,8 +3265,14 @@
       <c r="Q63">
         <v>1133.28</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63">
+        <v>1254.08</v>
+      </c>
+      <c r="S63">
+        <v>1230.31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2622,8 +3285,14 @@
       <c r="Q64">
         <v>9835.9599999999991</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64">
+        <v>9927.18</v>
+      </c>
+      <c r="S64">
+        <v>10311.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -2636,8 +3305,14 @@
       <c r="Q65">
         <v>2247.8000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65">
+        <v>2292.65</v>
+      </c>
+      <c r="S65">
+        <v>2419.5700000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2650,8 +3325,14 @@
       <c r="Q66">
         <v>575.54</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <v>538.65</v>
+      </c>
+      <c r="S66">
+        <v>549.71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2664,8 +3345,14 @@
       <c r="Q67">
         <v>93.62</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <v>83.35</v>
+      </c>
+      <c r="S67">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2678,8 +3365,14 @@
       <c r="Q68">
         <v>313.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68">
+        <v>276.37</v>
+      </c>
+      <c r="S68">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -2692,8 +3385,14 @@
       <c r="Q69">
         <v>46.16</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69">
+        <v>25.64</v>
+      </c>
+      <c r="S69">
+        <v>41.04</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -2706,8 +3405,14 @@
       <c r="Q70">
         <v>15342.61</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70">
+        <v>15713.92</v>
+      </c>
+      <c r="S70">
+        <v>16119.09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -2718,10 +3423,16 @@
         <v>48549.3</v>
       </c>
       <c r="Q71">
-        <v>55016.84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+        <v>50538</v>
+      </c>
+      <c r="R71">
+        <v>50538</v>
+      </c>
+      <c r="S71">
+        <v>50538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -2729,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2737,7 +3448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2745,7 +3456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -2758,8 +3469,14 @@
       <c r="Q75">
         <v>408.56</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <v>413.42</v>
+      </c>
+      <c r="S75">
+        <v>477.55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -2772,8 +3489,14 @@
       <c r="Q76">
         <v>54608.28</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76">
+        <v>56482.77</v>
+      </c>
+      <c r="S76">
+        <v>50221.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -2786,8 +3509,14 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -2799,6 +3528,12 @@
       </c>
       <c r="Q78">
         <v>55016.84</v>
+      </c>
+      <c r="R78">
+        <v>56896.19</v>
+      </c>
+      <c r="S78">
+        <v>58764.93</v>
       </c>
     </row>
   </sheetData>
@@ -2808,44 +3543,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D545639-72DD-478E-AD5E-635CD1287878}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P5" s="2">
         <v>44088</v>
       </c>
       <c r="Q5" s="2">
         <v>44089</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2">
+        <v>44090</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P6" t="s">
         <v>38</v>
       </c>
       <c r="Q6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2853,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2866,8 +3613,14 @@
       <c r="Q8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>24</v>
+      </c>
+      <c r="S8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2880,8 +3633,14 @@
       <c r="Q9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>58</v>
+      </c>
+      <c r="S9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2894,8 +3653,14 @@
       <c r="Q10">
         <v>258</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>332</v>
+      </c>
+      <c r="S10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2908,8 +3673,14 @@
       <c r="Q11">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>101</v>
+      </c>
+      <c r="S11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2922,8 +3693,14 @@
       <c r="Q12">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>68</v>
+      </c>
+      <c r="S12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2936,8 +3713,14 @@
       <c r="Q13">
         <v>459</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>527</v>
+      </c>
+      <c r="S13">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2950,8 +3733,14 @@
       <c r="Q14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>23</v>
+      </c>
+      <c r="S14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2964,8 +3753,14 @@
       <c r="Q15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>16</v>
+      </c>
+      <c r="S15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2978,6 +3773,12 @@
       <c r="Q16">
         <v>945</v>
       </c>
+      <c r="R16">
+        <v>1149</v>
+      </c>
+      <c r="S16">
+        <v>1193</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -3107,7 +3908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3115,7 +3916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -3123,7 +3924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3131,7 +3932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3139,7 +3940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3147,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -3160,8 +3961,14 @@
       <c r="Q38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <v>6</v>
+      </c>
+      <c r="S38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -3174,8 +3981,14 @@
       <c r="Q39">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <v>19</v>
+      </c>
+      <c r="S39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -3183,7 +3996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -3191,7 +4004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -3199,7 +4012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -3212,8 +4025,14 @@
       <c r="Q43">
         <v>837</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <v>860</v>
+      </c>
+      <c r="S43">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -3226,8 +4045,14 @@
       <c r="Q44">
         <v>404</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <v>417</v>
+      </c>
+      <c r="S44">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -3240,8 +4065,14 @@
       <c r="Q45">
         <v>253</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>291</v>
+      </c>
+      <c r="S45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3254,8 +4085,14 @@
       <c r="Q46">
         <v>1715</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <v>1654</v>
+      </c>
+      <c r="S46">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3268,8 +4105,14 @@
       <c r="Q47">
         <v>271</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>274</v>
+      </c>
+      <c r="S47">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3282,8 +4125,14 @@
       <c r="Q48">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>66</v>
+      </c>
+      <c r="S48">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3296,8 +4145,14 @@
       <c r="Q49">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>37</v>
+      </c>
+      <c r="S49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3310,8 +4165,14 @@
       <c r="Q50">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>21</v>
+      </c>
+      <c r="S50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3324,8 +4185,14 @@
       <c r="Q51">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51">
+        <v>47</v>
+      </c>
+      <c r="S51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3333,7 +4200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3346,8 +4213,14 @@
       <c r="Q53">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53">
+        <v>21</v>
+      </c>
+      <c r="S53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3355,7 +4228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3363,7 +4236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3371,7 +4244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3384,8 +4257,14 @@
       <c r="Q57">
         <v>3711</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57">
+        <v>3713</v>
+      </c>
+      <c r="S57">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3393,7 +4272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -3401,7 +4280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -3414,8 +4293,11 @@
       <c r="Q60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -3428,8 +4310,14 @@
       <c r="Q61">
         <v>180</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61">
+        <v>216</v>
+      </c>
+      <c r="S61">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -3442,8 +4330,14 @@
       <c r="Q62">
         <v>116</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62">
+        <v>143</v>
+      </c>
+      <c r="S62">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -3456,8 +4350,14 @@
       <c r="Q63">
         <v>234</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63">
+        <v>263</v>
+      </c>
+      <c r="S63">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -3470,8 +4370,14 @@
       <c r="Q64">
         <v>1283</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64">
+        <v>1312</v>
+      </c>
+      <c r="S64">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -3484,8 +4390,14 @@
       <c r="Q65">
         <v>396</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65">
+        <v>401</v>
+      </c>
+      <c r="S65">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -3498,8 +4410,14 @@
       <c r="Q66">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <v>66</v>
+      </c>
+      <c r="S66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -3512,8 +4430,14 @@
       <c r="Q67">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <v>15</v>
+      </c>
+      <c r="S67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -3526,8 +4450,14 @@
       <c r="Q68">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68">
+        <v>33</v>
+      </c>
+      <c r="S68">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -3540,8 +4470,14 @@
       <c r="Q69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69">
+        <v>4</v>
+      </c>
+      <c r="S69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -3554,8 +4490,14 @@
       <c r="Q70">
         <v>2347</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70">
+        <v>2454</v>
+      </c>
+      <c r="S70">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3566,10 +4508,16 @@
         <v>6184</v>
       </c>
       <c r="Q71">
-        <v>7003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6813</v>
+      </c>
+      <c r="R71">
+        <v>6813</v>
+      </c>
+      <c r="S71">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -3577,7 +4525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3585,7 +4533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3593,7 +4541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -3606,8 +4554,14 @@
       <c r="Q75">
         <v>104</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <v>108</v>
+      </c>
+      <c r="S75">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -3620,8 +4574,14 @@
       <c r="Q76">
         <v>6871</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76">
+        <v>7187</v>
+      </c>
+      <c r="S76">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -3632,10 +4592,16 @@
         <v>14</v>
       </c>
       <c r="Q77">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="R77">
+        <v>22</v>
+      </c>
+      <c r="S77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3647,6 +4613,12 @@
       </c>
       <c r="Q78">
         <v>7003</v>
+      </c>
+      <c r="R78">
+        <v>7316</v>
+      </c>
+      <c r="S78">
+        <v>7494</v>
       </c>
     </row>
   </sheetData>
